--- a/tables.xlsx
+++ b/tables.xlsx
@@ -509,9 +509,9 @@
           <t>not hispanic/latino = 40 (48.8%)
 white = 35 (42.7%)
 hispanic = 4 (4.9%)
+pacific islander = 1 (1.2%)
 asian = 1 (1.2%)
-native american = 1 (1.2%)
-pacific islander = 1 (1.2%)</t>
+native american = 1 (1.2%)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -521,8 +521,8 @@
 hispanic = 11 (3.3%)
 asian = 3 (0.9%)
 black = 2 (0.6%)
-native american = 1 (0.3%)
-pacific islander = 1 (0.3%)</t>
+pacific islander = 1 (0.3%)
+native american = 1 (0.3%)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -530,8 +530,8 @@
           <t>not hispanic/latino = 104 (58.4%)
 white = 58 (32.6%)
 hispanic = 11 (6.2%)
+asian = 2 (1.1%)
 pacific islander = 2 (1.1%)
-asian = 2 (1.1%)
 native american = 1 (0.6%)</t>
         </is>
       </c>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Demographics" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Etiology" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Outcome" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Outcome by Etiology" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -69,8 +70,11 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -509,9 +513,9 @@
           <t>not hispanic/latino = 40 (48.8%)
 white = 35 (42.7%)
 hispanic = 4 (4.9%)
-pacific islander = 1 (1.2%)
 asian = 1 (1.2%)
-native american = 1 (1.2%)</t>
+native american = 1 (1.2%)
+pacific islander = 1 (1.2%)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -530,8 +534,8 @@
           <t>not hispanic/latino = 104 (58.4%)
 white = 58 (32.6%)
 hispanic = 11 (6.2%)
+pacific islander = 2 (1.1%)
 asian = 2 (1.1%)
-pacific islander = 2 (1.1%)
 native american = 1 (0.6%)</t>
         </is>
       </c>
@@ -719,38 +723,38 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n"/>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>All, n=617</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Pure CSA (90+% Central Events), n=22</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Predominantly CSA (50-90% Central Events), n=82</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Combined OSA/CSA (10-50% Central Events), n=335</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Mainly OSA (&lt;10% Central Events), n=178</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n"/>
+      <c r="A2" s="2" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Cause of Central Sleep Apnea</t>
         </is>
@@ -807,7 +811,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Heart Comorbidity Counts</t>
         </is>
@@ -864,7 +868,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>CNS Comorbidity Counts</t>
         </is>
@@ -941,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -950,43 +954,110 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n"/>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>All, n=617</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Pure CSA (90+% Central Events), n=22</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Predominantly CSA (50-90% Central Events), n=82</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Combined OSA/CSA (10-50% Central Events), n=335</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Mainly OSA (&lt;10% Central Events), n=178</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n"/>
+      <c r="A2" s="2" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Initial Treatment</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cpap = 453 (73.4%)
+asv = 109 (17.7%)
+unknown = 26 (4.2%)
+none = 15 (2.4%)
+O2 = 13 (2.1%)
+other = 1 (0.2%)
+bipap = 0 (0.0%)
+ivaps = 0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>cpap = 9 (40.9%)
+asv = 8 (36.4%)
+unknown = 2 (9.1%)
+O2 = 2 (9.1%)
+none = 1 (4.5%)
+other = 0 (0.0%)
+bipap = 0 (0.0%)
+ivaps = 0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>cpap = 45 (54.9%)
+asv = 25 (30.5%)
+O2 = 7 (8.5%)
+none = 3 (3.7%)
+unknown = 2 (2.4%)
+other = 0 (0.0%)
+bipap = 0 (0.0%)
+ivaps = 0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>cpap = 250 (74.6%)
+asv = 62 (18.5%)
+unknown = 11 (3.3%)
+none = 9 (2.7%)
+O2 = 3 (0.9%)
+other = 0 (0.0%)
+bipap = 0 (0.0%)
+ivaps = 0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>cpap = 149 (83.7%)
+asv = 14 (7.9%)
+unknown = 11 (6.2%)
+none = 2 (1.1%)
+other = 1 (0.6%)
+O2 = 1 (0.6%)
+bipap = 0 (0.0%)
+ivaps = 0 (0.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Final Treatment</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>cpap = 312 (50.6%)
 asv = 205 (33.2%)
@@ -997,7 +1068,7 @@
 ivaps = 1 (0.2%)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>asv = 13 (59.1%)
 cpap = 4 (18.2%)
@@ -1008,7 +1079,7 @@
 ivaps = 0 (0.0%)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>asv = 36 (43.9%)
 cpap = 29 (35.4%)
@@ -1019,7 +1090,7 @@
 ivaps = 0 (0.0%)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>cpap = 170 (50.7%)
 asv = 122 (36.4%)
@@ -1030,7 +1101,7 @@
 ivaps = 1 (0.3%)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>cpap = 109 (61.2%)
 asv = 34 (19.1%)
@@ -1042,13 +1113,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Outcome</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>resolved w/ cpap = 245 (39.7%)
 failed cpap = 141 (22.9%)
@@ -1058,7 +1129,7 @@
 resolved w/bipap = 2 (0.3%)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>n/a = 10 (45.5%)
 resolved w/ cpap = 4 (18.2%)
@@ -1068,7 +1139,7 @@
 resolved w/bipap = 0 (0.0%)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>n/a = 23 (28.0%)
 resolved w/ cpap = 17 (20.7%)
@@ -1078,7 +1149,7 @@
 resolved w/bipap = 0 (0.0%)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>resolved w/ cpap = 140 (41.8%)
 failed cpap = 77 (23.0%)
@@ -1088,7 +1159,7 @@
 never started on cpap = 0 (0.0%)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>resolved w/ cpap = 84 (47.2%)
 failed cpap = 43 (24.2%)
@@ -1102,4 +1173,316 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>All, n=617</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Neurologic Contributor, n=98</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Cardiac Contributor, n=136</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Medication Contributor, n=67</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Treatment Emergent, n=239</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>OSA-associated Centrals, n=105</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Primary CSA, n=13</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Initial Treatment</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cpap = 453 (73.4%)
+asv = 109 (17.7%)
+unknown = 26 (4.2%)
+none = 15 (2.4%)
+O2 = 13 (2.1%)
+other = 1 (0.2%)
+bipap = 0 (0.0%)
+ivaps = 0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>cpap = 67 (68.4%)
+asv = 24 (24.5%)
+unknown = 6 (6.1%)
+none = 1 (1.0%)
+other = 0 (0.0%)
+O2 = 0 (0.0%)
+bipap = 0 (0.0%)
+ivaps = 0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>cpap = 99 (72.8%)
+asv = 20 (14.7%)
+O2 = 7 (5.1%)
+unknown = 6 (4.4%)
+none = 4 (2.9%)
+other = 0 (0.0%)
+bipap = 0 (0.0%)
+ivaps = 0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>cpap = 36 (53.7%)
+asv = 22 (32.8%)
+unknown = 4 (6.0%)
+O2 = 3 (4.5%)
+none = 2 (3.0%)
+other = 0 (0.0%)
+bipap = 0 (0.0%)
+ivaps = 0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>cpap = 188 (78.7%)
+asv = 31 (13.0%)
+unknown = 11 (4.6%)
+none = 5 (2.1%)
+O2 = 3 (1.3%)
+other = 1 (0.4%)
+bipap = 0 (0.0%)
+ivaps = 0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>cpap = 81 (77.1%)
+asv = 20 (19.0%)
+none = 3 (2.9%)
+unknown = 1 (1.0%)
+other = 0 (0.0%)
+O2 = 0 (0.0%)
+bipap = 0 (0.0%)
+ivaps = 0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>cpap = 8 (61.5%)
+asv = 3 (23.1%)
+unknown = 2 (15.4%)
+other = 0 (0.0%)
+none = 0 (0.0%)
+O2 = 0 (0.0%)
+bipap = 0 (0.0%)
+ivaps = 0 (0.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Final Treatment</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cpap = 312 (50.6%)
+asv = 205 (33.2%)
+bipap = 51 (8.3%)
+none = 23 (3.7%)
+O2 = 18 (2.9%)
+other = 7 (1.1%)
+ivaps = 1 (0.2%)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>asv = 44 (44.9%)
+cpap = 43 (43.9%)
+bipap = 6 (6.1%)
+none = 2 (2.0%)
+other = 1 (1.0%)
+O2 = 1 (1.0%)
+ivaps = 1 (1.0%)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>cpap = 63 (46.3%)
+asv = 44 (32.4%)
+bipap = 14 (10.3%)
+O2 = 10 (7.4%)
+none = 5 (3.7%)
+other = 0 (0.0%)
+ivaps = 0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>asv = 40 (59.7%)
+cpap = 15 (22.4%)
+O2 = 4 (6.0%)
+none = 3 (4.5%)
+bipap = 3 (4.5%)
+other = 1 (1.5%)
+ivaps = 1 (1.5%)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>cpap = 136 (56.9%)
+asv = 62 (25.9%)
+bipap = 24 (10.0%)
+none = 9 (3.8%)
+other = 4 (1.7%)
+O2 = 4 (1.7%)
+ivaps = 0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>cpap = 65 (61.9%)
+asv = 31 (29.5%)
+none = 4 (3.8%)
+bipap = 4 (3.8%)
+other = 1 (1.0%)
+O2 = 0 (0.0%)
+ivaps = 0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>cpap = 6 (46.2%)
+asv = 6 (46.2%)
+bipap = 1 (7.7%)
+other = 0 (0.0%)
+none = 0 (0.0%)
+O2 = 0 (0.0%)
+ivaps = 0 (0.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Outcome</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>resolved w/ cpap = 245 (39.7%)
+failed cpap = 141 (22.9%)
+n/a = 127 (20.6%)
+non-compliant = 88 (14.3%)
+never started on cpap = 14 (2.3%)
+resolved w/bipap = 2 (0.3%)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>resolved w/ cpap = 28 (28.6%)
+failed cpap = 26 (26.5%)
+n/a = 25 (25.5%)
+non-compliant = 18 (18.4%)
+never started on cpap = 1 (1.0%)
+resolved w/bipap = 0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>resolved w/ cpap = 46 (33.8%)
+failed cpap = 40 (29.4%)
+n/a = 29 (21.3%)
+non-compliant = 16 (11.8%)
+never started on cpap = 5 (3.7%)
+resolved w/bipap = 0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>n/a = 22 (32.8%)
+failed cpap = 21 (31.3%)
+non-compliant = 10 (14.9%)
+resolved w/ cpap = 9 (13.4%)
+never started on cpap = 5 (7.5%)
+resolved w/bipap = 0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>resolved w/ cpap = 119 (49.8%)
+failed cpap = 48 (20.1%)
+n/a = 39 (16.3%)
+non-compliant = 31 (13.0%)
+resolved w/bipap = 2 (0.8%)
+never started on cpap = 0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>resolved w/ cpap = 51 (48.6%)
+n/a = 21 (20.0%)
+non-compliant = 16 (15.2%)
+failed cpap = 15 (14.3%)
+never started on cpap = 2 (1.9%)
+resolved w/bipap = 0 (0.0%)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>resolved w/ cpap = 5 (38.5%)
+non-compliant = 2 (15.4%)
+never started on cpap = 2 (15.4%)
+n/a = 2 (15.4%)
+failed cpap = 2 (15.4%)
+resolved w/bipap = 0 (0.0%)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/tables.xlsx
+++ b/tables.xlsx
@@ -376,7 +376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,27 +388,27 @@
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>All, n=617</t>
+          <t>All</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Pure CSA (90+% Central Events), n=22</t>
+          <t>Pure CSA (90+% Central Events)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Predominantly CSA (50-90% Central Events), n=82</t>
+          <t>Predominantly CSA (50-90% Central Events)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Combined OSA/CSA (10-50% Central Events), n=335</t>
+          <t>Combined OSA/CSA (10-50% Central Events)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Mainly OSA (&lt;10% Central Events), n=178</t>
+          <t>Mainly OSA (&lt;10% Central Events)</t>
         </is>
       </c>
     </row>
@@ -418,7 +418,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>AGE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -448,258 +448,846 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>male = 431 (69.9%)
-female = 186 (30.1%)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>male = 17 (77.3%)
-female = 5 (22.7%)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>male = 58 (70.7%)
-female = 24 (29.3%)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>male = 238 (71.0%)
-female = 97 (29.0%)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>male = 118 (66.3%)
-female = 60 (33.7%)</t>
-        </is>
-      </c>
+      <c r="A4" s="1" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Ethnicity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>not hispanic/latino = 363 (58.8%)
-white = 212 (34.4%)
-hispanic = 27 (4.4%)
-asian = 6 (1.0%)
-pacific islander = 4 (0.6%)
-native american = 3 (0.5%)
-black = 2 (0.3%)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>not hispanic/latino = 14 (63.6%)
-white = 7 (31.8%)
-hispanic = 1 (4.5%)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>not hispanic/latino = 40 (48.8%)
-white = 35 (42.7%)
-hispanic = 4 (4.9%)
-asian = 1 (1.2%)
-native american = 1 (1.2%)
-pacific islander = 1 (1.2%)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>not hispanic/latino = 205 (61.2%)
-white = 112 (33.4%)
-hispanic = 11 (3.3%)
-asian = 3 (0.9%)
-black = 2 (0.6%)
-pacific islander = 1 (0.3%)
-native american = 1 (0.3%)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>not hispanic/latino = 104 (58.4%)
-white = 58 (32.6%)
-hispanic = 11 (6.2%)
-pacific islander = 2 (1.1%)
-asian = 2 (1.1%)
-native american = 1 (0.6%)</t>
-        </is>
-      </c>
+          <t>GENDER</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Smoking Status</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>never = 386 (62.6%)
-former = 176 (28.5%)
-current = 53 (8.6%)</t>
+          <t>431/617 (69.9%)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>never = 11 (50.0%)
-former = 6 (27.3%)
-current = 5 (22.7%)</t>
+          <t>17/22 (77.3%)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>never = 52 (63.4%)
-former = 24 (29.3%)
-current = 6 (7.3%)</t>
+          <t>58/82 (70.7%)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>never = 223 (66.6%)
-former = 84 (25.1%)
-current = 27 (8.1%)</t>
+          <t>238/335 (71.0%)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>never = 100 (56.2%)
-former = 62 (34.8%)
-current = 15 (8.4%)</t>
+          <t>118/178 (66.3%)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>BMI</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>32.6 [IQR 27.6, 36.5]</t>
+          <t>186/617 (30.1%)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>31.8 [IQR 27.6, 35.6]</t>
+          <t>5/22 (22.7%)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>30.6 [IQR 26.3, 34.6]</t>
+          <t>24/82 (29.3%)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>32.4 [IQR 27.4, 36.0]</t>
+          <t>97/335 (29.0%)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>34.1 [IQR 28.6, 37.8]</t>
+          <t>60/178 (33.7%)</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Comorbidity Counts</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>htn = 343 (55.6%)
-psych = 242 (39.2%)
-none = 141 (22.9%)
-dm = 134 (21.7%)
-ckd = 17 (2.8%)
-hiv = 1 (0.2%)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>psych = 11 (50.0%)
-htn = 9 (40.9%)
-none = 6 (27.3%)
-dm = 4 (18.2%)
-hiv = 0 (0.0%)
-ckd = 0 (0.0%)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>htn = 49 (59.8%)
-psych = 34 (41.5%)
-none = 19 (23.2%)
-dm = 13 (15.9%)
-hiv = 1 (1.2%)
-ckd = 1 (1.2%)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>htn = 186 (55.5%)
-psych = 117 (34.9%)
-none = 84 (25.1%)
-dm = 71 (21.2%)
-ckd = 11 (3.3%)
-hiv = 0 (0.0%)</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>htn = 99 (55.6%)
-psych = 80 (44.9%)
-dm = 46 (25.8%)
-none = 32 (18.0%)
-ckd = 5 (2.8%)
-hiv = 0 (0.0%)</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>RACE/ETHNICITY</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>575/617 (93.2%)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>21/22 (95.5%)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>75/82 (91.5%)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>317/335 (94.6%)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>162/178 (91.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>hispanic</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>27/617 (4.4%)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1/22 (4.5%)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4/82 (4.9%)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>11/335 (3.3%)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>11/178 (6.2%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>6/617 (1.0%)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0/22 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1/82 (1.2%)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3/335 (0.9%)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2/178 (1.1%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>pacific islander</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4/617 (0.6%)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0/22 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1/82 (1.2%)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1/335 (0.3%)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2/178 (1.1%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>native american</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3/617 (0.5%)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0/22 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1/82 (1.2%)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1/335 (0.3%)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1/178 (0.6%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2/617 (0.3%)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0/22 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0/82 (0.0%)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2/335 (0.6%)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0/178 (0.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>SMOKING</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>never</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>386/617 (62.6%)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>11/22 (50.0%)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>52/82 (63.4%)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>223/335 (66.6%)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>100/178 (56.2%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>former</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>176/617 (28.5%)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>6/22 (27.3%)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>24/82 (29.3%)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84/335 (25.1%)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>62/178 (34.8%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>current</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>53/617 (8.6%)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5/22 (22.7%)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6/82 (7.3%)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27/335 (8.1%)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>15/178 (8.4%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>BMI</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>32.6 [IQR 27.6, 36.5]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>31.8 [IQR 27.6, 35.6]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>30.6 [IQR 26.3, 34.6]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>32.4 [IQR 27.4, 36.0]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>34.1 [IQR 28.6, 37.8]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>COMORBIDITIES</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>htn</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>343/617 (55.6%)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>9/22 (40.9%)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>49/82 (59.8%)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>186/335 (55.5%)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>99/178 (55.6%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>psych</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>242/617 (39.2%)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>11/22 (50.0%)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>34/82 (41.5%)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>117/335 (34.9%)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>80/178 (44.9%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>141/617 (22.9%)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>6/22 (27.3%)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19/82 (23.2%)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84/335 (25.1%)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>32/178 (18.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>dm</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>134/617 (21.7%)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4/22 (18.2%)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13/82 (15.9%)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71/335 (21.2%)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>46/178 (25.8%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>ckd</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>17/617 (2.8%)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0/22 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1/82 (1.2%)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>11/335 (3.3%)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5/178 (2.8%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>hiv</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1/617 (0.2%)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0/22 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1/82 (1.2%)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0/335 (0.0%)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0/178 (0.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
           <t>AHI</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>44.5 [IQR 19.2, 61.1]</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>70.1 [IQR 39.0, 96.6]</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>51.1 [IQR 21.1, 71.9]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>44.9 [IQR 19.1, 61.0]</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>37.6 [IQR 17.4, 49.8]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>OSA SEVERITY BY AHI</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>severe</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>361/617 (58.5%)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>20/22 (90.9%)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>49/82 (59.8%)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>200/335 (59.7%)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>92/178 (51.7%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>moderate</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>146/617 (23.7%)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1/22 (4.5%)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>21/82 (25.6%)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>70/335 (20.9%)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>54/178 (30.3%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>mild</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>98/617 (15.9%)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1/22 (4.5%)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11/82 (13.4%)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>56/335 (16.7%)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>30/178 (16.9%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>11/617 (1.8%)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0/22 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1/82 (1.2%)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>8/335 (2.4%)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2/178 (1.1%)</t>
         </is>
       </c>
     </row>
@@ -714,7 +1302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -726,27 +1314,27 @@
       <c r="A1" s="2" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>All, n=617</t>
+          <t>All</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Pure CSA (90+% Central Events), n=22</t>
+          <t>Pure CSA (90+% Central Events)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Predominantly CSA (50-90% Central Events), n=82</t>
+          <t>Predominantly CSA (50-90% Central Events)</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Combined OSA/CSA (10-50% Central Events), n=335</t>
+          <t>Combined OSA/CSA (10-50% Central Events)</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Mainly OSA (&lt;10% Central Events), n=178</t>
+          <t>Mainly OSA (&lt;10% Central Events)</t>
         </is>
       </c>
     </row>
@@ -756,183 +1344,734 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Cause of Central Sleep Apnea</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>TECSA = 239 (38.7%)
-Cardiac = 136 (22.0%)
-OSA-CSA = 105 (17.0%)
-Neurologic = 98 (15.9%)
-Medication = 67 (10.9%)
-Primary = 13 (2.1%)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Cardiac = 9 (40.9%)
-Medication = 7 (31.8%)
-Neurologic = 5 (22.7%)
-Primary = 3 (13.6%)
-OSA-CSA = 0 (0.0%)
-TECSA = 0 (0.0%)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Cardiac = 29 (35.4%)
-Medication = 17 (20.7%)
-Neurologic = 16 (19.5%)
-OSA-CSA = 12 (14.6%)
-Primary = 9 (11.0%)
-TECSA = 8 (9.8%)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>TECSA = 110 (32.8%)
-OSA-CSA = 85 (25.4%)
-Cardiac = 68 (20.3%)
-Neurologic = 53 (15.8%)
-Medication = 34 (10.1%)
-Primary = 1 (0.3%)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>TECSA = 121 (68.0%)
-Cardiac = 30 (16.9%)
-Neurologic = 24 (13.5%)
-Medication = 9 (5.1%)
-OSA-CSA = 8 (4.5%)
-Primary = 0 (0.0%)</t>
-        </is>
-      </c>
+          <t>CAUSE OF CENTRAL SLEEP APNEAS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Heart Comorbidity Counts</t>
+          <t>TECSA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>none = 401 (65.0%)
-cad = 111 (18.0%)
-afib = 93 (15.1%)
-hfpef = 75 (12.2%)
-hfref = 22 (3.6%)
-other = 4 (0.6%)</t>
+          <t>239/617 (38.7%)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>none = 11 (50.0%)
-afib = 5 (22.7%)
-cad = 5 (22.7%)
-hfpef = 4 (18.2%)
-hfref = 2 (9.1%)
-other = 0 (0.0%)</t>
+          <t>0/22 (0.0%)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>none = 47 (57.3%)
-cad = 19 (23.2%)
-hfpef = 15 (18.3%)
-afib = 13 (15.9%)
-hfref = 6 (7.3%)
-other = 2 (2.4%)</t>
+          <t>8/82 (9.8%)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>none = 225 (67.2%)
-cad = 62 (18.5%)
-afib = 45 (13.4%)
-hfpef = 37 (11.0%)
-hfref = 11 (3.3%)
-other = 2 (0.6%)</t>
+          <t>110/335 (32.8%)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>none = 118 (66.3%)
-afib = 30 (16.9%)
-cad = 25 (14.0%)
-hfpef = 19 (10.7%)
-hfref = 3 (1.7%)
-other = 0 (0.0%)</t>
+          <t>121/178 (68.0%)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>CNS Comorbidity Counts</t>
+          <t>Cardiac</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>none = 504 (81.7%)
-cva = 61 (9.9%)
-neurodegenerative = 24 (3.9%)
-dementia = 10 (1.6%)
-seizures = 8 (1.3%)
-mass = 6 (1.0%)
-other = 2 (0.3%)
-chiari = 2 (0.3%)</t>
+          <t>136/617 (22.0%)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>none = 17 (77.3%)
-cva = 2 (9.1%)
-chiari = 1 (4.5%)
-seizures = 1 (4.5%)
-neurodegenerative = 1 (4.5%)
-other = 0 (0.0%)
-mass = 0 (0.0%)
-dementia = 0 (0.0%)</t>
+          <t>9/22 (40.9%)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>none = 68 (82.9%)
-cva = 8 (9.8%)
-neurodegenerative = 2 (2.4%)
-other = 1 (1.2%)
-chiari = 1 (1.2%)
-mass = 0 (0.0%)
-seizures = 0 (0.0%)
-dementia = 0 (0.0%)</t>
+          <t>29/82 (35.4%)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>none = 279 (83.3%)
-cva = 28 (8.4%)
-neurodegenerative = 13 (3.9%)
-dementia = 7 (2.1%)
-seizures = 6 (1.8%)
-mass = 4 (1.2%)
-other = 1 (0.3%)
-chiari = 0 (0.0%)</t>
+          <t>68/335 (20.3%)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>none = 140 (78.7%)
-cva = 23 (12.9%)
-neurodegenerative = 8 (4.5%)
-dementia = 3 (1.7%)
-mass = 2 (1.1%)
-seizures = 1 (0.6%)
-other = 0 (0.0%)
-chiari = 0 (0.0%)</t>
-        </is>
-      </c>
+          <t>30/178 (16.9%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>OSA-CSA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>105/617 (17.0%)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/22 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12/82 (14.6%)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85/335 (25.4%)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8/178 (4.5%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Neurologic</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>98/617 (15.9%)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5/22 (22.7%)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16/82 (19.5%)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>53/335 (15.8%)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>24/178 (13.5%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Medication</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>67/617 (10.9%)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>7/22 (31.8%)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17/82 (20.7%)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34/335 (10.1%)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9/178 (5.1%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Primary</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>13/617 (2.1%)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3/22 (13.6%)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9/82 (11.0%)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1/335 (0.3%)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0/178 (0.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>CARDIOVASCULAR CAUSES OF CSA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>401/617 (65.0%)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>11/22 (50.0%)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>47/82 (57.3%)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>225/335 (67.2%)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>118/178 (66.3%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>cad</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>111/617 (18.0%)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5/22 (22.7%)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19/82 (23.2%)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>62/335 (18.5%)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>25/178 (14.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>afib</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>93/617 (15.1%)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5/22 (22.7%)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13/82 (15.9%)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>45/335 (13.4%)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30/178 (16.9%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>hfpef</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>75/617 (12.2%)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4/22 (18.2%)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15/82 (18.3%)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>37/335 (11.0%)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>19/178 (10.7%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>hfref</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>22/617 (3.6%)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2/22 (9.1%)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6/82 (7.3%)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>11/335 (3.3%)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3/178 (1.7%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4/617 (0.6%)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0/22 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2/82 (2.4%)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2/335 (0.6%)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0/178 (0.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>CNS CAUSES OF CSA</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>504/617 (81.7%)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17/22 (77.3%)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>68/82 (82.9%)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>279/335 (83.3%)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>140/178 (78.7%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>cva</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>61/617 (9.9%)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2/22 (9.1%)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8/82 (9.8%)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28/335 (8.4%)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>23/178 (12.9%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>neurodegenerative</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>24/617 (3.9%)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1/22 (4.5%)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2/82 (2.4%)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>13/335 (3.9%)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8/178 (4.5%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>dementia</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>10/617 (1.6%)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0/22 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0/82 (0.0%)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>7/335 (2.1%)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3/178 (1.7%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>seizures</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>8/617 (1.3%)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1/22 (4.5%)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0/82 (0.0%)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>6/335 (1.8%)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1/178 (0.6%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>mass</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>6/617 (1.0%)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0/22 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0/82 (0.0%)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>4/335 (1.2%)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2/178 (1.1%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2/617 (0.3%)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0/22 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1/82 (1.2%)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1/335 (0.3%)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0/178 (0.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>chiari</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2/617 (0.3%)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1/22 (4.5%)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1/82 (1.2%)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0/335 (0.0%)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0/178 (0.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>*Note:</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CAD does not count as causative of CSA and is listed in table 1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>*Note2:</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>does not sum to total- If multiple comorbidities present, counted toward each</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -945,7 +2084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,27 +2096,27 @@
       <c r="A1" s="2" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>All, n=617</t>
+          <t>All</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Pure CSA (90+% Central Events), n=22</t>
+          <t>Pure CSA (90+% Central Events)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Predominantly CSA (50-90% Central Events), n=82</t>
+          <t>Predominantly CSA (50-90% Central Events)</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Combined OSA/CSA (10-50% Central Events), n=335</t>
+          <t>Combined OSA/CSA (10-50% Central Events)</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Mainly OSA (&lt;10% Central Events), n=178</t>
+          <t>Mainly OSA (&lt;10% Central Events)</t>
         </is>
       </c>
     </row>
@@ -987,186 +2126,724 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Initial Treatment</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>cpap = 453 (73.4%)
-asv = 109 (17.7%)
-unknown = 26 (4.2%)
-none = 15 (2.4%)
-O2 = 13 (2.1%)
-other = 1 (0.2%)
-bipap = 0 (0.0%)
-ivaps = 0 (0.0%)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>cpap = 9 (40.9%)
-asv = 8 (36.4%)
-unknown = 2 (9.1%)
-O2 = 2 (9.1%)
-none = 1 (4.5%)
-other = 0 (0.0%)
-bipap = 0 (0.0%)
-ivaps = 0 (0.0%)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>cpap = 45 (54.9%)
-asv = 25 (30.5%)
-O2 = 7 (8.5%)
-none = 3 (3.7%)
-unknown = 2 (2.4%)
-other = 0 (0.0%)
-bipap = 0 (0.0%)
-ivaps = 0 (0.0%)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>cpap = 250 (74.6%)
-asv = 62 (18.5%)
-unknown = 11 (3.3%)
-none = 9 (2.7%)
-O2 = 3 (0.9%)
-other = 0 (0.0%)
-bipap = 0 (0.0%)
-ivaps = 0 (0.0%)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>cpap = 149 (83.7%)
-asv = 14 (7.9%)
-unknown = 11 (6.2%)
-none = 2 (1.1%)
-other = 1 (0.6%)
-O2 = 1 (0.6%)
-bipap = 0 (0.0%)
-ivaps = 0 (0.0%)</t>
-        </is>
-      </c>
+          <t>INITIAL TREATMENT</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Final Treatment</t>
+          <t>cpap</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cpap = 312 (50.6%)
-asv = 205 (33.2%)
-bipap = 51 (8.3%)
-none = 23 (3.7%)
-O2 = 18 (2.9%)
-other = 7 (1.1%)
-ivaps = 1 (0.2%)</t>
+          <t>453/617 (73.4%)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>asv = 13 (59.1%)
-cpap = 4 (18.2%)
-O2 = 2 (9.1%)
-bipap = 2 (9.1%)
-none = 1 (4.5%)
-other = 0 (0.0%)
-ivaps = 0 (0.0%)</t>
+          <t>9/22 (40.9%)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>asv = 36 (43.9%)
-cpap = 29 (35.4%)
-O2 = 8 (9.8%)
-none = 4 (4.9%)
-bipap = 4 (4.9%)
-other = 1 (1.2%)
-ivaps = 0 (0.0%)</t>
+          <t>45/82 (54.9%)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>cpap = 170 (50.7%)
-asv = 122 (36.4%)
-bipap = 21 (6.3%)
-none = 11 (3.3%)
-O2 = 6 (1.8%)
-other = 4 (1.2%)
-ivaps = 1 (0.3%)</t>
+          <t>250/335 (74.6%)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>cpap = 109 (61.2%)
-asv = 34 (19.1%)
-bipap = 24 (13.5%)
-none = 7 (3.9%)
-other = 2 (1.1%)
-O2 = 2 (1.1%)
-ivaps = 0 (0.0%)</t>
+          <t>149/178 (83.7%)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>asv</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>resolved w/ cpap = 245 (39.7%)
-failed cpap = 141 (22.9%)
-n/a = 127 (20.6%)
-non-compliant = 88 (14.3%)
-never started on cpap = 14 (2.3%)
-resolved w/bipap = 2 (0.3%)</t>
+          <t>109/617 (17.7%)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>n/a = 10 (45.5%)
-resolved w/ cpap = 4 (18.2%)
-failed cpap = 4 (18.2%)
-non-compliant = 2 (9.1%)
-never started on cpap = 2 (9.1%)
-resolved w/bipap = 0 (0.0%)</t>
+          <t>8/22 (36.4%)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>n/a = 23 (28.0%)
-resolved w/ cpap = 17 (20.7%)
-failed cpap = 17 (20.7%)
-non-compliant = 13 (15.9%)
-never started on cpap = 12 (14.6%)
-resolved w/bipap = 0 (0.0%)</t>
+          <t>25/82 (30.5%)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>resolved w/ cpap = 140 (41.8%)
-failed cpap = 77 (23.0%)
-n/a = 76 (22.7%)
-non-compliant = 42 (12.5%)
-resolved w/bipap = 0 (0.0%)
-never started on cpap = 0 (0.0%)</t>
+          <t>62/335 (18.5%)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>resolved w/ cpap = 84 (47.2%)
-failed cpap = 43 (24.2%)
-non-compliant = 31 (17.4%)
-n/a = 18 (10.1%)
-resolved w/bipap = 2 (1.1%)
-never started on cpap = 0 (0.0%)</t>
+          <t>14/178 (7.9%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>26/617 (4.2%)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2/22 (9.1%)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2/82 (2.4%)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11/335 (3.3%)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>11/178 (6.2%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>15/617 (2.4%)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1/22 (4.5%)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3/82 (3.7%)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>9/335 (2.7%)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2/178 (1.1%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>O2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13/617 (2.1%)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2/22 (9.1%)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7/82 (8.5%)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3/335 (0.9%)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1/178 (0.6%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1/617 (0.2%)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0/22 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0/82 (0.0%)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0/335 (0.0%)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1/178 (0.6%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>bipap</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0/617 (0.0%)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0/22 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0/82 (0.0%)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0/335 (0.0%)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0/178 (0.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>ivaps</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0/617 (0.0%)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0/22 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0/82 (0.0%)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0/335 (0.0%)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0/178 (0.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>FINAL TREATMENT</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>cpap</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>312/617 (50.6%)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4/22 (18.2%)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29/82 (35.4%)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>170/335 (50.7%)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>109/178 (61.2%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>asv</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>205/617 (33.2%)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>13/22 (59.1%)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>36/82 (43.9%)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>122/335 (36.4%)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>34/178 (19.1%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>bipap</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>51/617 (8.3%)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2/22 (9.1%)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4/82 (4.9%)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21/335 (6.3%)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>24/178 (13.5%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>23/617 (3.7%)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1/22 (4.5%)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4/82 (4.9%)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>11/335 (3.3%)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7/178 (3.9%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>O2</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>18/617 (2.9%)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2/22 (9.1%)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8/82 (9.8%)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>6/335 (1.8%)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2/178 (1.1%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>7/617 (1.1%)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0/22 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1/82 (1.2%)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4/335 (1.2%)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2/178 (1.1%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>ivaps</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1/617 (0.2%)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0/22 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0/82 (0.0%)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1/335 (0.3%)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0/178 (0.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>OUTCOME</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>resolved w/ cpap</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>245/617 (39.7%)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4/22 (18.2%)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17/82 (20.7%)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>140/335 (41.8%)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>84/178 (47.2%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>failed cpap</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>141/617 (22.9%)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4/22 (18.2%)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17/82 (20.7%)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77/335 (23.0%)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>43/178 (24.2%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>127/617 (20.6%)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>10/22 (45.5%)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23/82 (28.0%)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76/335 (22.7%)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>18/178 (10.1%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>non-compliant</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>88/617 (14.3%)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2/22 (9.1%)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13/82 (15.9%)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>42/335 (12.5%)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>31/178 (17.4%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>never started on cpap</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>14/617 (2.3%)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2/22 (9.1%)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12/82 (14.6%)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0/335 (0.0%)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0/178 (0.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>resolved w/bipap</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2/617 (0.3%)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0/22 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0/82 (0.0%)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0/335 (0.0%)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2/178 (1.1%)</t>
         </is>
       </c>
     </row>
@@ -1181,7 +2858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1193,37 +2870,37 @@
       <c r="A1" s="2" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>All, n=617</t>
+          <t>All</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Neurologic Contributor, n=98</t>
+          <t>Neurologic Contributor</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Cardiac Contributor, n=136</t>
+          <t>Cardiac Contributor</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Medication Contributor, n=67</t>
+          <t>Medication Contributor</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Treatment Emergent, n=239</t>
+          <t>Treatment Emergent</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>OSA-associated Centrals, n=105</t>
+          <t>OSA-associated Centrals</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Primary CSA, n=13</t>
+          <t>Primary CSA</t>
         </is>
       </c>
     </row>
@@ -1233,252 +2910,944 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Initial Treatment</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>cpap = 453 (73.4%)
-asv = 109 (17.7%)
-unknown = 26 (4.2%)
-none = 15 (2.4%)
-O2 = 13 (2.1%)
-other = 1 (0.2%)
-bipap = 0 (0.0%)
-ivaps = 0 (0.0%)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>cpap = 67 (68.4%)
-asv = 24 (24.5%)
-unknown = 6 (6.1%)
-none = 1 (1.0%)
-other = 0 (0.0%)
-O2 = 0 (0.0%)
-bipap = 0 (0.0%)
-ivaps = 0 (0.0%)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>cpap = 99 (72.8%)
-asv = 20 (14.7%)
-O2 = 7 (5.1%)
-unknown = 6 (4.4%)
-none = 4 (2.9%)
-other = 0 (0.0%)
-bipap = 0 (0.0%)
-ivaps = 0 (0.0%)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>cpap = 36 (53.7%)
-asv = 22 (32.8%)
-unknown = 4 (6.0%)
-O2 = 3 (4.5%)
-none = 2 (3.0%)
-other = 0 (0.0%)
-bipap = 0 (0.0%)
-ivaps = 0 (0.0%)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>cpap = 188 (78.7%)
-asv = 31 (13.0%)
-unknown = 11 (4.6%)
-none = 5 (2.1%)
-O2 = 3 (1.3%)
-other = 1 (0.4%)
-bipap = 0 (0.0%)
-ivaps = 0 (0.0%)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>cpap = 81 (77.1%)
-asv = 20 (19.0%)
-none = 3 (2.9%)
-unknown = 1 (1.0%)
-other = 0 (0.0%)
-O2 = 0 (0.0%)
-bipap = 0 (0.0%)
-ivaps = 0 (0.0%)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>cpap = 8 (61.5%)
-asv = 3 (23.1%)
-unknown = 2 (15.4%)
-other = 0 (0.0%)
-none = 0 (0.0%)
-O2 = 0 (0.0%)
-bipap = 0 (0.0%)
-ivaps = 0 (0.0%)</t>
-        </is>
-      </c>
+          <t>INITIAL TREATMENT</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Final Treatment</t>
+          <t>cpap</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cpap = 312 (50.6%)
-asv = 205 (33.2%)
-bipap = 51 (8.3%)
-none = 23 (3.7%)
-O2 = 18 (2.9%)
-other = 7 (1.1%)
-ivaps = 1 (0.2%)</t>
+          <t>453/617 (73.4%)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>asv = 44 (44.9%)
-cpap = 43 (43.9%)
-bipap = 6 (6.1%)
-none = 2 (2.0%)
-other = 1 (1.0%)
-O2 = 1 (1.0%)
-ivaps = 1 (1.0%)</t>
+          <t>67/98 (68.4%)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>cpap = 63 (46.3%)
-asv = 44 (32.4%)
-bipap = 14 (10.3%)
-O2 = 10 (7.4%)
-none = 5 (3.7%)
-other = 0 (0.0%)
-ivaps = 0 (0.0%)</t>
+          <t>99/136 (72.8%)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>asv = 40 (59.7%)
-cpap = 15 (22.4%)
-O2 = 4 (6.0%)
-none = 3 (4.5%)
-bipap = 3 (4.5%)
-other = 1 (1.5%)
-ivaps = 1 (1.5%)</t>
+          <t>36/67 (53.7%)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>cpap = 136 (56.9%)
-asv = 62 (25.9%)
-bipap = 24 (10.0%)
-none = 9 (3.8%)
-other = 4 (1.7%)
-O2 = 4 (1.7%)
-ivaps = 0 (0.0%)</t>
+          <t>188/239 (78.7%)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>cpap = 65 (61.9%)
-asv = 31 (29.5%)
-none = 4 (3.8%)
-bipap = 4 (3.8%)
-other = 1 (1.0%)
-O2 = 0 (0.0%)
-ivaps = 0 (0.0%)</t>
+          <t>81/105 (77.1%)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>cpap = 6 (46.2%)
-asv = 6 (46.2%)
-bipap = 1 (7.7%)
-other = 0 (0.0%)
-none = 0 (0.0%)
-O2 = 0 (0.0%)
-ivaps = 0 (0.0%)</t>
+          <t>8/13 (61.5%)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>asv</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>resolved w/ cpap = 245 (39.7%)
-failed cpap = 141 (22.9%)
-n/a = 127 (20.6%)
-non-compliant = 88 (14.3%)
-never started on cpap = 14 (2.3%)
-resolved w/bipap = 2 (0.3%)</t>
+          <t>109/617 (17.7%)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>resolved w/ cpap = 28 (28.6%)
-failed cpap = 26 (26.5%)
-n/a = 25 (25.5%)
-non-compliant = 18 (18.4%)
-never started on cpap = 1 (1.0%)
-resolved w/bipap = 0 (0.0%)</t>
+          <t>24/98 (24.5%)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>resolved w/ cpap = 46 (33.8%)
-failed cpap = 40 (29.4%)
-n/a = 29 (21.3%)
-non-compliant = 16 (11.8%)
-never started on cpap = 5 (3.7%)
-resolved w/bipap = 0 (0.0%)</t>
+          <t>20/136 (14.7%)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>n/a = 22 (32.8%)
-failed cpap = 21 (31.3%)
-non-compliant = 10 (14.9%)
-resolved w/ cpap = 9 (13.4%)
-never started on cpap = 5 (7.5%)
-resolved w/bipap = 0 (0.0%)</t>
+          <t>22/67 (32.8%)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>resolved w/ cpap = 119 (49.8%)
-failed cpap = 48 (20.1%)
-n/a = 39 (16.3%)
-non-compliant = 31 (13.0%)
-resolved w/bipap = 2 (0.8%)
-never started on cpap = 0 (0.0%)</t>
+          <t>31/239 (13.0%)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>resolved w/ cpap = 51 (48.6%)
-n/a = 21 (20.0%)
-non-compliant = 16 (15.2%)
-failed cpap = 15 (14.3%)
-never started on cpap = 2 (1.9%)
-resolved w/bipap = 0 (0.0%)</t>
+          <t>20/105 (19.0%)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>resolved w/ cpap = 5 (38.5%)
-non-compliant = 2 (15.4%)
-never started on cpap = 2 (15.4%)
-n/a = 2 (15.4%)
-failed cpap = 2 (15.4%)
-resolved w/bipap = 0 (0.0%)</t>
+          <t>3/13 (23.1%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>26/617 (4.2%)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6/98 (6.1%)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6/136 (4.4%)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4/67 (6.0%)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>11/239 (4.6%)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1/105 (1.0%)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2/13 (15.4%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>15/617 (2.4%)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1/98 (1.0%)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4/136 (2.9%)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/67 (3.0%)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5/239 (2.1%)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3/105 (2.9%)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0/13 (0.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>O2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13/617 (2.1%)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0/98 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7/136 (5.1%)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3/67 (4.5%)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3/239 (1.3%)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0/105 (0.0%)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0/13 (0.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1/617 (0.2%)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0/98 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0/136 (0.0%)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0/67 (0.0%)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1/239 (0.4%)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0/105 (0.0%)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0/13 (0.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>bipap</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0/617 (0.0%)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0/98 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0/136 (0.0%)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0/67 (0.0%)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0/239 (0.0%)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0/105 (0.0%)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0/13 (0.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>ivaps</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0/617 (0.0%)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0/98 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0/136 (0.0%)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0/67 (0.0%)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0/239 (0.0%)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0/105 (0.0%)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0/13 (0.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>FINAL TREATMENT</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>cpap</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>312/617 (50.6%)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>43/98 (43.9%)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>63/136 (46.3%)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>15/67 (22.4%)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>136/239 (56.9%)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>65/105 (61.9%)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>6/13 (46.2%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>asv</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>205/617 (33.2%)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>44/98 (44.9%)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>44/136 (32.4%)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>40/67 (59.7%)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>62/239 (25.9%)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>31/105 (29.5%)</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>6/13 (46.2%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>bipap</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>51/617 (8.3%)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6/98 (6.1%)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14/136 (10.3%)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3/67 (4.5%)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>24/239 (10.0%)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>4/105 (3.8%)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1/13 (7.7%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>23/617 (3.7%)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2/98 (2.0%)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5/136 (3.7%)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3/67 (4.5%)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9/239 (3.8%)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>4/105 (3.8%)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0/13 (0.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>O2</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>18/617 (2.9%)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1/98 (1.0%)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10/136 (7.4%)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4/67 (6.0%)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4/239 (1.7%)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0/105 (0.0%)</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0/13 (0.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>7/617 (1.1%)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1/98 (1.0%)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0/136 (0.0%)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1/67 (1.5%)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4/239 (1.7%)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1/105 (1.0%)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0/13 (0.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>ivaps</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1/617 (0.2%)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1/98 (1.0%)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0/136 (0.0%)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1/67 (1.5%)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0/239 (0.0%)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0/105 (0.0%)</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0/13 (0.0%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>OUTCOME</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>resolved w/ cpap</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>245/617 (39.7%)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>28/98 (28.6%)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>46/136 (33.8%)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>9/67 (13.4%)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>119/239 (49.8%)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>51/105 (48.6%)</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>5/13 (38.5%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>failed cpap</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>141/617 (22.9%)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>26/98 (26.5%)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>40/136 (29.4%)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21/67 (31.3%)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>48/239 (20.1%)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>15/105 (14.3%)</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2/13 (15.4%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>127/617 (20.6%)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>25/98 (25.5%)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>29/136 (21.3%)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>22/67 (32.8%)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>39/239 (16.3%)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>21/105 (20.0%)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2/13 (15.4%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>non-compliant</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>88/617 (14.3%)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>18/98 (18.4%)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16/136 (11.8%)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10/67 (14.9%)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>31/239 (13.0%)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>16/105 (15.2%)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2/13 (15.4%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>never started on cpap</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>14/617 (2.3%)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1/98 (1.0%)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5/136 (3.7%)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>5/67 (7.5%)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0/239 (0.0%)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2/105 (1.9%)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2/13 (15.4%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>resolved w/bipap</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2/617 (0.3%)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0/98 (0.0%)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0/136 (0.0%)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0/67 (0.0%)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2/239 (0.8%)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0/105 (0.0%)</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0/13 (0.0%)</t>
         </is>
       </c>
     </row>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -393,22 +393,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Pure CSA (90+% Central Events)</t>
+          <t>Pure CSA (90+% CSA)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Predominantly CSA (50-90% Central Events)</t>
+          <t>Predominantly CSA (50-90% CSA)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Combined OSA/CSA (10-50% Central Events)</t>
+          <t>Combined OSA/CSA (10-49.9% CSA)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Mainly OSA (&lt;10% Central Events)</t>
+          <t>Mainly OSA (&lt;10% CSA)</t>
         </is>
       </c>
     </row>
@@ -423,7 +423,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>59.1 (+/- 15.0)</t>
+          <t>59.0 (+/- 14.9)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -433,17 +433,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>58.9 (+/- 15.8)</t>
+          <t>58.6 (+/- 15.8)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>60.0 (+/- 15.2)</t>
+          <t>59.8 (+/- 15.2)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>58.0 (+/- 14.3)</t>
+          <t>58.0 (+/- 14.2)</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>341/497 (68.6%)</t>
+          <t>352/510 (69.0%)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -485,17 +485,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>47/65 (72.3%)</t>
+          <t>46/62 (74.2%)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>173/251 (68.9%)</t>
+          <t>185/266 (69.5%)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>111/170 (65.3%)</t>
+          <t>111/171 (64.9%)</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>156/497 (31.4%)</t>
+          <t>158/510 (31.0%)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -517,17 +517,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>18/65 (27.7%)</t>
+          <t>16/62 (25.8%)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>78/251 (31.1%)</t>
+          <t>81/266 (30.5%)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>59/170 (34.7%)</t>
+          <t>60/171 (35.1%)</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>463/497 (93.2%)</t>
+          <t>476/510 (93.3%)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -569,17 +569,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>61/65 (93.8%)</t>
+          <t>59/62 (95.2%)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>236/251 (94.0%)</t>
+          <t>250/266 (94.0%)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>155/170 (91.2%)</t>
+          <t>156/171 (91.2%)</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>23/497 (4.6%)</t>
+          <t>23/510 (4.5%)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -601,17 +601,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2/65 (3.1%)</t>
+          <t>1/62 (1.6%)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10/251 (4.0%)</t>
+          <t>11/266 (4.1%)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>11/170 (6.5%)</t>
+          <t>11/171 (6.4%)</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3/497 (0.6%)</t>
+          <t>3/510 (0.6%)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -633,17 +633,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1/65 (1.5%)</t>
+          <t>1/62 (1.6%)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1/251 (0.4%)</t>
+          <t>1/266 (0.4%)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1/170 (0.6%)</t>
+          <t>1/171 (0.6%)</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3/497 (0.6%)</t>
+          <t>3/510 (0.6%)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -665,17 +665,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0/65 (0.0%)</t>
+          <t>0/62 (0.0%)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1/251 (0.4%)</t>
+          <t>1/266 (0.4%)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2/170 (1.2%)</t>
+          <t>2/171 (1.2%)</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3/497 (0.6%)</t>
+          <t>3/510 (0.6%)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -697,17 +697,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1/65 (1.5%)</t>
+          <t>1/62 (1.6%)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1/251 (0.4%)</t>
+          <t>1/266 (0.4%)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1/170 (0.6%)</t>
+          <t>1/171 (0.6%)</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2/497 (0.4%)</t>
+          <t>2/510 (0.4%)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0/65 (0.0%)</t>
+          <t>0/62 (0.0%)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2/251 (0.8%)</t>
+          <t>2/266 (0.8%)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0/170 (0.0%)</t>
+          <t>0/171 (0.0%)</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>302/497 (60.8%)</t>
+          <t>311/510 (61.0%)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -781,17 +781,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>41/65 (63.1%)</t>
+          <t>39/62 (62.9%)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>159/251 (63.3%)</t>
+          <t>169/266 (63.5%)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>96/170 (56.5%)</t>
+          <t>97/171 (56.7%)</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>152/497 (30.6%)</t>
+          <t>154/510 (30.2%)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -813,17 +813,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>19/65 (29.2%)</t>
+          <t>18/62 (29.0%)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>70/251 (27.9%)</t>
+          <t>73/266 (27.4%)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>60/170 (35.3%)</t>
+          <t>60/171 (35.1%)</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>41/497 (8.2%)</t>
+          <t>43/510 (8.4%)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -845,17 +845,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5/65 (7.7%)</t>
+          <t>5/62 (8.1%)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21/251 (8.4%)</t>
+          <t>23/266 (8.6%)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>13/170 (7.6%)</t>
+          <t>13/171 (7.6%)</t>
         </is>
       </c>
     </row>
@@ -875,27 +875,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>32.9 [IQR 27.7, 37.0]</t>
+          <t>32.9 (+/- 7.9)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>31.0 [IQR 27.2, 35.6]</t>
+          <t>31.0 (+/- 5.7)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>31.5 [IQR 26.7, 35.3]</t>
+          <t>31.3 (+/- 8.5)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>32.5 [IQR 27.6, 36.5]</t>
+          <t>32.5 (+/- 7.7)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>34.2 [IQR 28.6, 37.9]</t>
+          <t>34.2 (+/- 8.1)</t>
         </is>
       </c>
     </row>
@@ -910,7 +910,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>COMORBIDITIES</t>
+          <t>COMORBIDITIES: [ ] manually add CAD to this in place of None</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -927,7 +927,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>282/497 (56.7%)</t>
+          <t>288/510 (56.5%)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -937,17 +937,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>38/65 (58.5%)</t>
+          <t>36/62 (58.1%)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>141/251 (56.2%)</t>
+          <t>149/266 (56.0%)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>96/170 (56.5%)</t>
+          <t>96/171 (56.1%)</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>201/497 (40.4%)</t>
+          <t>205/510 (40.2%)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -969,17 +969,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>29/65 (44.6%)</t>
+          <t>28/62 (45.2%)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>91/251 (36.3%)</t>
+          <t>95/266 (35.7%)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>77/170 (45.3%)</t>
+          <t>78/171 (45.6%)</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>118/497 (23.7%)</t>
+          <t>120/510 (23.5%)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1001,17 +1001,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>11/65 (16.9%)</t>
+          <t>9/62 (14.5%)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>58/251 (23.1%)</t>
+          <t>62/266 (23.3%)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>46/170 (27.1%)</t>
+          <t>46/171 (26.9%)</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>106/497 (21.3%)</t>
+          <t>109/510 (21.4%)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1033,17 +1033,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>16/65 (24.6%)</t>
+          <t>15/62 (24.2%)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>59/251 (23.5%)</t>
+          <t>63/266 (23.7%)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>29/170 (17.1%)</t>
+          <t>29/171 (17.0%)</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16/497 (3.2%)</t>
+          <t>17/510 (3.3%)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1065,17 +1065,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1/65 (1.5%)</t>
+          <t>1/62 (1.6%)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10/251 (4.0%)</t>
+          <t>11/266 (4.1%)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5/170 (2.9%)</t>
+          <t>5/171 (2.9%)</t>
         </is>
       </c>
     </row>
@@ -1107,27 +1107,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>44.4 [IQR 18.9, 62.6]</t>
+          <t>44.7 (+/- 34.1)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>81.8 [IQR 40.8, 115.2]</t>
+          <t>81.8 (+/- 46.6)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>55.4 [IQR 23.2, 83.4]</t>
+          <t>55.6 (+/- 39.9)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>44.4 [IQR 18.6, 64.1]</t>
+          <t>45.2 (+/- 34.5)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>37.7 [IQR 17.9, 49.6]</t>
+          <t>37.8 (+/- 27.4)</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>286/497 (57.5%)</t>
+          <t>296/510 (58.0%)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1149,17 +1149,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>41/65 (63.1%)</t>
+          <t>39/62 (62.9%)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>147/251 (58.6%)</t>
+          <t>158/266 (59.4%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>88/170 (51.8%)</t>
+          <t>89/171 (52.0%)</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>119/497 (23.9%)</t>
+          <t>121/510 (23.7%)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1181,17 +1181,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>16/65 (24.6%)</t>
+          <t>15/62 (24.2%)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>50/251 (19.9%)</t>
+          <t>53/266 (19.9%)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>52/170 (30.6%)</t>
+          <t>52/171 (30.4%)</t>
         </is>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>81/497 (16.3%)</t>
+          <t>82/510 (16.1%)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1213,17 +1213,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>8/65 (12.3%)</t>
+          <t>8/62 (12.9%)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>45/251 (17.9%)</t>
+          <t>46/266 (17.3%)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>28/170 (16.5%)</t>
+          <t>28/171 (16.4%)</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10/497 (2.0%)</t>
+          <t>10/510 (2.0%)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1245,17 +1245,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0/65 (0.0%)</t>
+          <t>0/62 (0.0%)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>8/251 (3.2%)</t>
+          <t>8/266 (3.0%)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2/170 (1.2%)</t>
+          <t>2/171 (1.2%)</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>383/497 (77.1%)</t>
+          <t>389/510 (76.3%)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1297,17 +1297,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>52/65 (80.0%)</t>
+          <t>50/62 (80.6%)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>179/251 (71.3%)</t>
+          <t>187/266 (70.3%)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>145/170 (85.3%)</t>
+          <t>145/171 (84.8%)</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>114/497 (22.9%)</t>
+          <t>121/510 (23.7%)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>13/65 (20.0%)</t>
+          <t>12/62 (19.4%)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>72/251 (28.7%)</t>
+          <t>79/266 (29.7%)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>25/170 (14.7%)</t>
+          <t>26/171 (15.2%)</t>
         </is>
       </c>
     </row>
@@ -1395,22 +1395,22 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Pure CSA (90+% Central Events)</t>
+          <t>Pure CSA (90+% CSA)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Predominantly CSA (50-90% Central Events)</t>
+          <t>Predominantly CSA (50-90% CSA)</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Combined OSA/CSA (10-50% Central Events)</t>
+          <t>Combined OSA/CSA (10-49.9% CSA)</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Mainly OSA (&lt;10% Central Events)</t>
+          <t>Mainly OSA (&lt;10% CSA)</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>235/497 (47.3%)</t>
+          <t>214/510 (42.0%)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1447,17 +1447,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5/65 (7.7%)</t>
+          <t>0/62 (0.0%)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>109/251 (43.4%)</t>
+          <t>116/266 (43.6%)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>121/170 (71.2%)</t>
+          <t>98/171 (57.3%)</t>
         </is>
       </c>
     </row>
@@ -1469,27 +1469,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>133/497 (26.8%)</t>
+          <t>159/510 (31.2%)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6/11 (54.5%)</t>
+          <t>7/11 (63.6%)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28/65 (43.1%)</t>
+          <t>30/62 (48.4%)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>69/251 (27.5%)</t>
+          <t>77/266 (28.9%)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>30/170 (17.6%)</t>
+          <t>45/171 (26.3%)</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>96/497 (19.3%)</t>
+          <t>116/510 (22.7%)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1511,17 +1511,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17/65 (26.2%)</t>
+          <t>19/62 (30.6%)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>53/251 (21.1%)</t>
+          <t>58/266 (21.8%)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>24/170 (14.1%)</t>
+          <t>37/171 (21.6%)</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>67/497 (13.5%)</t>
+          <t>67/510 (13.1%)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1543,17 +1543,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17/65 (26.2%)</t>
+          <t>17/62 (27.4%)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>37/251 (14.7%)</t>
+          <t>37/266 (13.9%)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9/170 (5.3%)</t>
+          <t>9/171 (5.3%)</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4/497 (0.8%)</t>
+          <t>4/510 (0.8%)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1575,17 +1575,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3/65 (4.6%)</t>
+          <t>3/62 (4.8%)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0/251 (0.0%)</t>
+          <t>0/266 (0.0%)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0/170 (0.0%)</t>
+          <t>0/171 (0.0%)</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>307/497 (61.8%)</t>
+          <t>317/510 (62.2%)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1627,17 +1627,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>35/65 (53.8%)</t>
+          <t>32/62 (51.6%)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>158/251 (62.9%)</t>
+          <t>170/266 (63.9%)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>111/170 (65.3%)</t>
+          <t>112/171 (65.5%)</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>92/497 (18.5%)</t>
+          <t>95/510 (18.6%)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1659,17 +1659,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>15/65 (23.1%)</t>
+          <t>15/62 (24.2%)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>48/251 (19.1%)</t>
+          <t>51/266 (19.2%)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>24/170 (14.1%)</t>
+          <t>24/171 (14.0%)</t>
         </is>
       </c>
     </row>
@@ -1681,27 +1681,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>89/497 (17.9%)</t>
+          <t>90/510 (17.6%)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3/11 (27.3%)</t>
+          <t>4/11 (36.4%)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13/65 (20.0%)</t>
+          <t>13/62 (21.0%)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>43/251 (17.1%)</t>
+          <t>43/266 (16.2%)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>30/170 (17.6%)</t>
+          <t>30/171 (17.5%)</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>74/497 (14.9%)</t>
+          <t>74/510 (14.5%)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1723,17 +1723,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>15/65 (23.1%)</t>
+          <t>15/62 (24.2%)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>37/251 (14.7%)</t>
+          <t>37/266 (13.9%)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>19/170 (11.2%)</t>
+          <t>19/171 (11.1%)</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20/497 (4.0%)</t>
+          <t>20/510 (3.9%)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1755,17 +1755,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5/65 (7.7%)</t>
+          <t>5/62 (8.1%)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11/251 (4.4%)</t>
+          <t>11/266 (4.1%)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3/170 (1.8%)</t>
+          <t>3/171 (1.8%)</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0/497 (0.0%)</t>
+          <t>0/510 (0.0%)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1787,17 +1787,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0/65 (0.0%)</t>
+          <t>0/62 (0.0%)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0/251 (0.0%)</t>
+          <t>0/266 (0.0%)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/170 (0.0%)</t>
+          <t>0/171 (0.0%)</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>388/497 (78.1%)</t>
+          <t>401/510 (78.6%)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>50/65 (76.9%)</t>
+          <t>47/62 (75.8%)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>197/251 (78.5%)</t>
+          <t>212/266 (79.7%)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>132/170 (77.6%)</t>
+          <t>133/171 (77.8%)</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>60/497 (12.1%)</t>
+          <t>60/510 (11.8%)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1871,17 +1871,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8/65 (12.3%)</t>
+          <t>8/62 (12.9%)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>27/251 (10.8%)</t>
+          <t>27/266 (10.2%)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>23/170 (13.5%)</t>
+          <t>23/171 (13.5%)</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>27/497 (5.4%)</t>
+          <t>27/510 (5.3%)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1903,17 +1903,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5/65 (7.7%)</t>
+          <t>5/62 (8.1%)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>15/251 (6.0%)</t>
+          <t>15/266 (5.6%)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>7/170 (4.1%)</t>
+          <t>7/171 (4.1%)</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>15/497 (3.0%)</t>
+          <t>15/510 (2.9%)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0/65 (0.0%)</t>
+          <t>0/62 (0.0%)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>9/251 (3.6%)</t>
+          <t>9/266 (3.4%)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6/170 (3.5%)</t>
+          <t>6/171 (3.5%)</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>14/497 (2.8%)</t>
+          <t>14/510 (2.7%)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1967,17 +1967,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1/65 (1.5%)</t>
+          <t>1/62 (1.6%)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>8/251 (3.2%)</t>
+          <t>8/266 (3.0%)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5/170 (2.9%)</t>
+          <t>5/171 (2.9%)</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2/497 (0.4%)</t>
+          <t>2/510 (0.4%)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1999,17 +1999,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2/65 (3.1%)</t>
+          <t>2/62 (3.2%)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0/251 (0.0%)</t>
+          <t>0/266 (0.0%)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0/170 (0.0%)</t>
+          <t>0/171 (0.0%)</t>
         </is>
       </c>
     </row>
@@ -2081,22 +2081,22 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Pure CSA (90+% Central Events)</t>
+          <t>Pure CSA (90+% CSA)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Predominantly CSA (50-90% Central Events)</t>
+          <t>Predominantly CSA (50-90% CSA)</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Combined OSA/CSA (10-50% Central Events)</t>
+          <t>Combined OSA/CSA (10-49.9% CSA)</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Mainly OSA (&lt;10% Central Events)</t>
+          <t>Mainly OSA (&lt;10% CSA)</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>359/497 (72.2%)</t>
+          <t>373/510 (73.1%)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2133,17 +2133,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>35/65 (53.8%)</t>
+          <t>34/62 (54.8%)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>184/251 (73.3%)</t>
+          <t>198/266 (74.4%)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>138/170 (81.2%)</t>
+          <t>139/171 (81.3%)</t>
         </is>
       </c>
     </row>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>82/497 (16.5%)</t>
+          <t>81/510 (15.9%)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2165,17 +2165,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18/65 (27.7%)</t>
+          <t>16/62 (25.8%)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>43/251 (17.1%)</t>
+          <t>44/266 (16.5%)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>14/170 (8.2%)</t>
+          <t>14/171 (8.2%)</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>56/497 (11.3%)</t>
+          <t>56/510 (11.0%)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2197,17 +2197,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12/65 (18.5%)</t>
+          <t>12/62 (19.4%)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24/251 (9.6%)</t>
+          <t>24/266 (9.0%)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>18/170 (10.6%)</t>
+          <t>18/171 (10.5%)</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>242/497 (48.7%)</t>
+          <t>243/510 (47.6%)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2249,17 +2249,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19/65 (29.2%)</t>
+          <t>18/62 (29.0%)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>119/251 (47.4%)</t>
+          <t>121/266 (45.5%)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>102/170 (60.0%)</t>
+          <t>102/171 (59.6%)</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>168/497 (33.8%)</t>
+          <t>176/510 (34.5%)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2281,17 +2281,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30/65 (46.2%)</t>
+          <t>28/62 (45.2%)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>96/251 (38.2%)</t>
+          <t>106/266 (39.8%)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>34/170 (20.0%)</t>
+          <t>34/171 (19.9%)</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>31/497 (6.2%)</t>
+          <t>34/510 (6.7%)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2313,17 +2313,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3/65 (4.6%)</t>
+          <t>3/62 (4.8%)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10/251 (4.0%)</t>
+          <t>13/266 (4.9%)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>17/170 (10.0%)</t>
+          <t>17/171 (9.9%)</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>18/497 (3.6%)</t>
+          <t>18/510 (3.5%)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2345,17 +2345,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3/65 (4.6%)</t>
+          <t>3/62 (4.8%)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8/251 (3.2%)</t>
+          <t>8/266 (3.0%)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7/170 (4.1%)</t>
+          <t>7/171 (4.1%)</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16/497 (3.2%)</t>
+          <t>16/510 (3.1%)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2377,17 +2377,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7/65 (10.8%)</t>
+          <t>7/62 (11.3%)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7/251 (2.8%)</t>
+          <t>7/266 (2.6%)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2/170 (1.2%)</t>
+          <t>2/171 (1.2%)</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>15/497 (3.0%)</t>
+          <t>15/510 (2.9%)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2409,17 +2409,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2/65 (3.1%)</t>
+          <t>2/62 (3.2%)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7/251 (2.8%)</t>
+          <t>7/266 (2.6%)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6/170 (3.5%)</t>
+          <t>6/171 (3.5%)</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4/497 (0.8%)</t>
+          <t>5/510 (1.0%)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2441,17 +2441,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0/65 (0.0%)</t>
+          <t>0/62 (0.0%)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3/251 (1.2%)</t>
+          <t>3/266 (1.1%)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1/170 (0.6%)</t>
+          <t>2/171 (1.2%)</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2/497 (0.4%)</t>
+          <t>2/510 (0.4%)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2473,17 +2473,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1/65 (1.5%)</t>
+          <t>1/62 (1.6%)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1/251 (0.4%)</t>
+          <t>1/266 (0.4%)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/170 (0.0%)</t>
+          <t>0/171 (0.0%)</t>
         </is>
       </c>
     </row>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1/497 (0.2%)</t>
+          <t>1/510 (0.2%)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2505,17 +2505,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0/65 (0.0%)</t>
+          <t>0/62 (0.0%)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0/251 (0.0%)</t>
+          <t>0/266 (0.0%)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1/170 (0.6%)</t>
+          <t>1/171 (0.6%)</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>186/497 (37.4%)</t>
+          <t>186/510 (36.5%)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2557,17 +2557,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8/65 (12.3%)</t>
+          <t>7/62 (11.3%)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>95/251 (37.8%)</t>
+          <t>96/266 (36.1%)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>76/170 (44.7%)</t>
+          <t>76/171 (44.4%)</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>123/497 (24.7%)</t>
+          <t>137/510 (26.9%)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2589,17 +2589,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>18/65 (27.7%)</t>
+          <t>18/62 (29.0%)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>63/251 (25.1%)</t>
+          <t>76/266 (28.6%)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>42/170 (24.7%)</t>
+          <t>43/171 (25.1%)</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>96/497 (19.3%)</t>
+          <t>95/510 (18.6%)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2621,17 +2621,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>18/65 (27.7%)</t>
+          <t>16/62 (25.8%)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>59/251 (23.5%)</t>
+          <t>60/266 (22.6%)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>18/170 (10.6%)</t>
+          <t>18/171 (10.5%)</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>76/497 (15.3%)</t>
+          <t>76/510 (14.9%)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2653,17 +2653,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>15/65 (23.1%)</t>
+          <t>15/62 (24.2%)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>30/251 (12.0%)</t>
+          <t>30/266 (11.3%)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>29/170 (17.1%)</t>
+          <t>29/171 (17.0%)</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>11/497 (2.2%)</t>
+          <t>11/510 (2.2%)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2685,17 +2685,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1/65 (1.5%)</t>
+          <t>1/62 (1.6%)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4/251 (1.6%)</t>
+          <t>4/266 (1.5%)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5/170 (2.9%)</t>
+          <t>5/171 (2.9%)</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5/497 (1.0%)</t>
+          <t>5/510 (1.0%)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2717,17 +2717,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5/65 (7.7%)</t>
+          <t>5/62 (8.1%)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0/251 (0.0%)</t>
+          <t>0/266 (0.0%)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0/170 (0.0%)</t>
+          <t>0/171 (0.0%)</t>
         </is>
       </c>
     </row>
@@ -2807,17 +2807,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>383/497 (77.1%)</t>
+          <t>389/510 (76.3%)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>71/96 (74.0%)</t>
+          <t>91/116 (78.4%)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90/133 (67.7%)</t>
+          <t>114/159 (71.7%)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>190/235 (80.9%)</t>
+          <t>163/214 (76.2%)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -2844,17 +2844,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>114/497 (22.9%)</t>
+          <t>121/510 (23.7%)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>25/96 (26.0%)</t>
+          <t>25/116 (21.6%)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>43/133 (32.3%)</t>
+          <t>45/159 (28.3%)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>45/235 (19.1%)</t>
+          <t>51/214 (23.8%)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -2903,17 +2903,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>359/497 (72.2%)</t>
+          <t>373/510 (73.1%)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>67/96 (69.8%)</t>
+          <t>79/116 (68.1%)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>97/133 (72.9%)</t>
+          <t>112/159 (70.4%)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>181/235 (77.0%)</t>
+          <t>174/214 (81.3%)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -2940,17 +2940,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>82/497 (16.5%)</t>
+          <t>81/510 (15.9%)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21/96 (21.9%)</t>
+          <t>26/116 (22.4%)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20/133 (15.0%)</t>
+          <t>28/159 (17.6%)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2960,7 +2960,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>29/235 (12.3%)</t>
+          <t>20/214 (9.3%)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -2977,17 +2977,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>56/497 (11.3%)</t>
+          <t>56/510 (11.0%)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8/96 (8.3%)</t>
+          <t>11/116 (9.5%)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16/133 (12.0%)</t>
+          <t>19/159 (11.9%)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>25/235 (10.6%)</t>
+          <t>20/214 (9.3%)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -3036,17 +3036,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>242/497 (48.7%)</t>
+          <t>243/510 (47.6%)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>44/96 (45.8%)</t>
+          <t>54/116 (46.6%)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>62/133 (46.6%)</t>
+          <t>74/159 (46.5%)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>133/235 (56.6%)</t>
+          <t>117/214 (54.7%)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -3073,17 +3073,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>168/497 (33.8%)</t>
+          <t>176/510 (34.5%)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>42/96 (43.8%)</t>
+          <t>49/116 (42.2%)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>45/133 (33.8%)</t>
+          <t>56/159 (35.2%)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>61/235 (26.0%)</t>
+          <t>57/214 (26.6%)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3110,17 +3110,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>31/497 (6.2%)</t>
+          <t>34/510 (6.7%)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3/96 (3.1%)</t>
+          <t>4/116 (3.4%)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9/133 (6.8%)</t>
+          <t>10/159 (6.3%)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>18/235 (7.7%)</t>
+          <t>19/214 (8.9%)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -3147,17 +3147,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>18/497 (3.6%)</t>
+          <t>18/510 (3.5%)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2/96 (2.1%)</t>
+          <t>3/116 (2.6%)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4/133 (3.0%)</t>
+          <t>4/159 (2.5%)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9/235 (3.8%)</t>
+          <t>8/214 (3.7%)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -3184,17 +3184,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16/497 (3.2%)</t>
+          <t>16/510 (3.1%)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1/96 (1.0%)</t>
+          <t>2/116 (1.7%)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8/133 (6.0%)</t>
+          <t>8/159 (5.0%)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4/235 (1.7%)</t>
+          <t>4/214 (1.9%)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -3221,17 +3221,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>15/497 (3.0%)</t>
+          <t>15/510 (2.9%)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2/96 (2.1%)</t>
+          <t>2/116 (1.7%)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4/133 (3.0%)</t>
+          <t>5/159 (3.1%)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7/235 (3.0%)</t>
+          <t>6/214 (2.8%)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -3258,17 +3258,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4/497 (0.8%)</t>
+          <t>5/510 (1.0%)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1/96 (1.0%)</t>
+          <t>1/116 (0.9%)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0/133 (0.0%)</t>
+          <t>1/159 (0.6%)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3/235 (1.3%)</t>
+          <t>3/214 (1.4%)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -3295,17 +3295,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2/497 (0.4%)</t>
+          <t>2/510 (0.4%)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1/96 (1.0%)</t>
+          <t>1/116 (0.9%)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0/133 (0.0%)</t>
+          <t>0/159 (0.0%)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0/235 (0.0%)</t>
+          <t>0/214 (0.0%)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -3332,17 +3332,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1/497 (0.2%)</t>
+          <t>1/510 (0.2%)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0/96 (0.0%)</t>
+          <t>0/116 (0.0%)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1/133 (0.8%)</t>
+          <t>1/159 (0.6%)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0/235 (0.0%)</t>
+          <t>0/214 (0.0%)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -3391,17 +3391,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>186/497 (37.4%)</t>
+          <t>186/510 (36.5%)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>27/96 (28.1%)</t>
+          <t>36/116 (31.0%)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>46/133 (34.6%)</t>
+          <t>56/159 (35.2%)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>112/235 (47.7%)</t>
+          <t>97/214 (45.3%)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -3428,17 +3428,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>123/497 (24.7%)</t>
+          <t>137/510 (26.9%)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>26/96 (27.1%)</t>
+          <t>28/116 (24.1%)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>40/133 (30.1%)</t>
+          <t>43/159 (27.0%)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>47/235 (20.0%)</t>
+          <t>57/214 (26.6%)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -3465,17 +3465,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>96/497 (19.3%)</t>
+          <t>95/510 (18.6%)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>24/96 (25.0%)</t>
+          <t>28/116 (24.1%)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>24/133 (18.0%)</t>
+          <t>32/159 (20.1%)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>38/235 (16.2%)</t>
+          <t>28/214 (13.1%)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -3502,17 +3502,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>76/497 (15.3%)</t>
+          <t>76/510 (14.9%)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>18/96 (18.8%)</t>
+          <t>22/116 (19.0%)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18/133 (13.5%)</t>
+          <t>22/159 (13.8%)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>31/235 (13.2%)</t>
+          <t>26/214 (12.1%)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -3539,17 +3539,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>11/497 (2.2%)</t>
+          <t>11/510 (2.2%)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1/96 (1.0%)</t>
+          <t>1/116 (0.9%)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2/133 (1.5%)</t>
+          <t>3/159 (1.9%)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>7/235 (3.0%)</t>
+          <t>6/214 (2.8%)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -3576,17 +3576,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5/497 (1.0%)</t>
+          <t>5/510 (1.0%)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0/96 (0.0%)</t>
+          <t>1/116 (0.9%)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3/133 (2.3%)</t>
+          <t>3/159 (1.9%)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0/235 (0.0%)</t>
+          <t>0/214 (0.0%)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -618,7 +618,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>native american</t>
+          <t>pacific islander</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -650,7 +650,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>asian</t>
+          <t>native american</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0/62 (0.0%)</t>
+          <t>1/62 (1.6%)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -675,14 +675,14 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2/171 (1.2%)</t>
+          <t>1/171 (0.6%)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>pacific islander</t>
+          <t>asian</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1/62 (1.6%)</t>
+          <t>0/62 (0.0%)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1/171 (0.6%)</t>
+          <t>2/171 (1.2%)</t>
         </is>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>82/510 (16.1%)</t>
+          <t>93/510 (18.2%)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1218,12 +1218,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>46/266 (17.3%)</t>
+          <t>55/266 (20.7%)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>28/171 (16.4%)</t>
+          <t>30/171 (17.5%)</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10/510 (2.0%)</t>
+          <t>0/510 (0.0%)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>8/266 (3.0%)</t>
+          <t>0/266 (0.0%)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2/171 (1.2%)</t>
+          <t>0/171 (0.0%)</t>
         </is>
       </c>
     </row>
